--- a/安徽乾坤建材科技有限公司（应收货款汇总表）.xlsx
+++ b/安徽乾坤建材科技有限公司（应收货款汇总表）.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="广德为星钢材贸易有限公司" sheetId="1" r:id="rId1"/>
+    <sheet name="宣城祥瑞钢构有限公司" sheetId="2" r:id="rId2"/>
+    <sheet name="齐盛建筑安装工程有限公司" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>应收货款汇总表</t>
   </si>
@@ -144,8 +144,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -173,21 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -197,6 +182,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,7 +202,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,15 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,18 +238,88 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,77 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -355,19 +353,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,163 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,21 +611,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -643,16 +626,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +692,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -717,145 +715,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -884,21 +882,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,25 +906,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -942,6 +916,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,10 +1296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1329,8 +1327,8 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" ht="22" customHeight="1" spans="2:12">
       <c r="B2" s="7" t="s">
@@ -1360,7 +1358,7 @@
       <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1368,370 +1366,144 @@
       </c>
     </row>
     <row r="3" ht="22" customHeight="1" spans="2:12">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="21">
         <v>30000</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="21">
         <v>30000</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="22">
         <f>G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:12">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21">
         <v>62509.56</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="21">
         <v>62509.56</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="22">
         <v>0</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="26"/>
+      <c r="K4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="2:12">
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
-        <v>50000</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="2:13">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
-        <v>880</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>880</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="22" customHeight="1" spans="2:13">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
-        <v>600</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>600</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="2:12">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="2:12">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" ht="22" customHeight="1" spans="2:12">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
-        <v>89270</v>
-      </c>
-      <c r="H8" s="11">
-        <v>100000</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" customFormat="1" ht="22" customHeight="1" spans="2:12">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11">
-        <v>73450</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="27"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="2:12">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" ht="22" customHeight="1" spans="2:12">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11">
-        <v>45482.5</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" ht="22" customHeight="1" spans="2:12">
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11">
-        <v>20000</v>
-      </c>
-      <c r="H11" s="11">
-        <v>20000</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="22" customHeight="1" spans="2:13">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11">
-        <v>880</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
-        <v>880</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="22" customHeight="1" spans="2:12">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="2:12">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" ht="22" customHeight="1" spans="2:12">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" ht="22" customHeight="1" spans="2:12">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="2:12">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" ht="22" customHeight="1" spans="2:12">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" ht="22" customHeight="1" spans="2:12">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="6">
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1742,14 +1514,265 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.125" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="2:12">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="2:12">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="2:12">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="2:13">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10">
+        <v>880</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>880</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="2:13">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10">
+        <v>600</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>600</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="2:12">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10">
+        <v>89270</v>
+      </c>
+      <c r="H6" s="10">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" customFormat="1" ht="22" customHeight="1" spans="2:12">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10">
+        <v>73450</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="2:12">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10">
+        <v>45482.5</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="2:12">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" ht="22" customHeight="1" spans="2:12">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" ht="22" customHeight="1" spans="2:12">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1759,14 +1782,236 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.125" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="2:12">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="2:12">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="2:12">
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>20000</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="2:13">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10">
+        <v>880</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>880</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="2:12">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="2:12">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="2:12">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="2:12">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="2:12">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" ht="22" customHeight="1" spans="2:12">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" ht="22" customHeight="1" spans="2:12">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
